--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_CAMINHA.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_CAMINHA.xlsx
@@ -597,64 +597,64 @@
         <v>4779</v>
       </c>
       <c r="H2" t="n">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I2" t="n">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="J2" t="n">
-        <v>2071</v>
+        <v>1906</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>345</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21</v>
+      </c>
+      <c r="S2" t="n">
+        <v>198</v>
+      </c>
+      <c r="T2" t="n">
+        <v>340</v>
+      </c>
+      <c r="U2" t="n">
         <v>30</v>
       </c>
-      <c r="N2" t="n">
-        <v>309</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="V2" t="n">
+        <v>3202</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
-        <v>26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>197</v>
-      </c>
-      <c r="T2" t="n">
-        <v>343</v>
-      </c>
-      <c r="U2" t="n">
-        <v>26</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2918</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2</v>
-      </c>
       <c r="X2" t="n">
-        <v>3169</v>
+        <v>2955</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
